--- a/medicine/Pharmacie/Polygala_senega/Polygala_senega.xlsx
+++ b/medicine/Pharmacie/Polygala_senega/Polygala_senega.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Polygale de Virginie (Polygala senega) ou Laitier, Herbe au lait est une plante herbacée vivace de 10 à 50 cm de la famille des Polygalacées.
 </t>
@@ -511,92 +523,239 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Polygale de Virginie a des épis de fleurs blanches en été. C'est une belle plante résistante, qui n'est cependant vendue que par des exploitants qui se spécialisent dans les plantes indigènes et médicinales. Le fruit, comprimé, s'ouvre par deux valves portant chacune une graine. La semence germe lentement. Comme les plantes deviennent rares dans certaines régions autochtones, il ne faut pas les cueillir sauvages.
-Botanique
-Feuilles lancéolées sessiles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Polygala_senega</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polygala_senega</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Feuilles lancéolées sessiles
 Epis serrés de fleurs blanches irrégulières
-Sépales pétaloïdes de taille inégale
-Composants
-Saponines (senegine, acide polygalique)
+Sépales pétaloïdes de taille inégale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Polygala_senega</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polygala_senega</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Composants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Saponines (senegine, acide polygalique)
 Salicylates
 Mucilage
 Résine
 Huiles essentielles
 phytostérols
-acides phénoliques
-Distribution
-Elle est originaire de l'Est du Canada et des États-Unis. Le polygale de Virginie est en grande partie récolté dans son habitat naturel, principalement au Manitoba et dans l'Est de la Saskatchewan. Polygana senega se développe sur toutes sortes de terrains, il peut pousser jusqu'à 2 600 mètres d'altitude.
-Le fait que le polygale de Virginie devienne rare dans certaines parties de son aire de distribution est inquiétant[1]. Comme il est cultivé avec succès dans d'autres parties du monde, en particulier au Japon, on est en train d'étudier la possibilité de le cultiver à des fins commerciales au Canada.
+acides phénoliques</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Polygala_senega</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polygala_senega</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire de l'Est du Canada et des États-Unis. Le polygale de Virginie est en grande partie récolté dans son habitat naturel, principalement au Manitoba et dans l'Est de la Saskatchewan. Polygana senega se développe sur toutes sortes de terrains, il peut pousser jusqu'à 2 600 mètres d'altitude.
+Le fait que le polygale de Virginie devienne rare dans certaines parties de son aire de distribution est inquiétant. Comme il est cultivé avec succès dans d'autres parties du monde, en particulier au Japon, on est en train d'étudier la possibilité de le cultiver à des fins commerciales au Canada.
 Aujourd'hui il est commun en Europe.
-Culture
-La multiplication se réalise par semis des graines ou division des touffes. La racine se récolte à l'automne.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Polygala_senega</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Polygala_senega</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La multiplication se réalise par semis des graines ou division des touffes. La racine se récolte à l'automne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Polygala_senega</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polygala_senega</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les autochtones, elle était couramment employée contre les morsures de serpent, les troubles respiratoires, les maux de tête et les maux d'estomac.
 Dès les années 1700, elle est utilisée pour ses propriétés médicinales sur les voies respiratoires et a été cultivée et exportée par le Canada ; elle y a servi de culture de substitution pendant la crise de 1930.
-Au XVIIIe siècle elle est appelée « senéka »[2].
+Au XVIIIe siècle elle est appelée « senéka ».
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Polygala_senega</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Polygala_senega</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pharmacopée
-Parties utilisées : racines
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parties utilisées : racines
 Propriété : anti-tussive, anti-inflammatoire notamment bronchique, diurétique
 Contre indication : femmes enceintes, ulcères. C'est un dépresseur cardiaque contre-indiqué en cas de maladie de cœur.
 Polygala senega peut être utilisé comme anti-inflammatoire des voies respiratoires en cas de bronchite, toux chronique, sinusites mais peut aussi être utilisé contre certaines maladies de peaux du type psoriasis et eczéma. Il est aussi de temps en temps employé en tant que diurétique dans l'hydropisie rénale.
